--- a/prep/Resultados_Escenario_Nuevo.xlsx
+++ b/prep/Resultados_Escenario_Nuevo.xlsx
@@ -461,52 +461,52 @@
         <v>18</v>
       </c>
       <c r="B2" t="n">
-        <v>11440707.4296214</v>
+        <v>11554763.3588294</v>
       </c>
       <c r="C2" t="n">
-        <v>10166956.3449276</v>
+        <v>-268663126.363068</v>
       </c>
       <c r="D2" t="n">
-        <v>237780.289828385</v>
+        <v>150283.802560066</v>
       </c>
       <c r="E2" t="n">
-        <v>198586.618772488</v>
+        <v>113384.311737736</v>
       </c>
       <c r="F2" t="n">
-        <v>56552.6961548232</v>
+        <v>277990070.426937</v>
       </c>
       <c r="G2" t="n">
-        <v>255139.314927311</v>
+        <v>278103454.738674</v>
       </c>
       <c r="H2" t="n">
-        <v>10096.5785791926</v>
+        <v>6323.68866933204</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0640343096715041</v>
+        <v>0.0407166101333371</v>
       </c>
       <c r="J2" t="n">
-        <v>22187.5803377598</v>
+        <v>49.68896867558</v>
       </c>
       <c r="K2" t="n">
-        <v>20291.9377072979</v>
+        <v>4285.68356997017</v>
       </c>
       <c r="L2" t="n">
-        <v>34187.5803377598</v>
+        <v>18049.6889686756</v>
       </c>
       <c r="M2" t="n">
-        <v>84863.6809902</v>
+        <v>19326.0655474582</v>
       </c>
       <c r="N2" t="n">
-        <v>172057287.109144</v>
+        <v>227425363.977265</v>
       </c>
       <c r="O2" t="n">
-        <v>266010091.114723</v>
+        <v>210342861.472896</v>
       </c>
       <c r="P2" t="n">
-        <v>543302478.805876</v>
+        <v>1359713894870.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>981369857.029743</v>
+        <v>1360151663096.01</v>
       </c>
       <c r="R2" t="n">
         <v>303118.169896544</v>
@@ -517,52 +517,52 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>4023389.56109817</v>
+        <v>4037258.72853742</v>
       </c>
       <c r="C3" t="n">
-        <v>3602992.44440417</v>
+        <v>-153382718.802206</v>
       </c>
       <c r="D3" t="n">
-        <v>117229.061729928</v>
+        <v>103217.965641601</v>
       </c>
       <c r="E3" t="n">
-        <v>98656.0085861832</v>
+        <v>78337.2153925029</v>
       </c>
       <c r="F3" t="n">
-        <v>23540.1482862605</v>
+        <v>156660162.851105</v>
       </c>
       <c r="G3" t="n">
-        <v>122196.156872444</v>
+        <v>156738500.066497</v>
       </c>
       <c r="H3" t="n">
-        <v>10096.5785791926</v>
+        <v>6323.68866933204</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0640343096715041</v>
+        <v>0.0407166101333371</v>
       </c>
       <c r="J3" t="n">
-        <v>22187.5803377598</v>
+        <v>49.68896867558</v>
       </c>
       <c r="K3" t="n">
-        <v>20291.9377072979</v>
+        <v>4285.68356997017</v>
       </c>
       <c r="L3" t="n">
-        <v>34187.5803377598</v>
+        <v>18049.6889686756</v>
       </c>
       <c r="M3" t="n">
-        <v>84863.6809902</v>
+        <v>19326.0655474582</v>
       </c>
       <c r="N3" t="n">
-        <v>56998590.0826971</v>
+        <v>73512143.862045</v>
       </c>
       <c r="O3" t="n">
-        <v>103535086.368408</v>
+        <v>80823710.0594101</v>
       </c>
       <c r="P3" t="n">
-        <v>226086143.580679</v>
+        <v>766261190591.106</v>
       </c>
       <c r="Q3" t="n">
-        <v>386619820.031784</v>
+        <v>766415526445.027</v>
       </c>
       <c r="R3" t="n">
         <v>303118.169896544</v>

--- a/prep/Resultados_Escenario_Nuevo.xlsx
+++ b/prep/Resultados_Escenario_Nuevo.xlsx
@@ -461,52 +461,52 @@
         <v>18</v>
       </c>
       <c r="B2" t="n">
-        <v>11554763.3588294</v>
+        <v>11439776.9738718</v>
       </c>
       <c r="C2" t="n">
-        <v>-268663126.363068</v>
+        <v>10182199.9600088</v>
       </c>
       <c r="D2" t="n">
-        <v>150283.802560066</v>
+        <v>237752.524065385</v>
       </c>
       <c r="E2" t="n">
-        <v>113384.311737736</v>
+        <v>198952.964146462</v>
       </c>
       <c r="F2" t="n">
-        <v>277990070.426937</v>
+        <v>56539.10705324</v>
       </c>
       <c r="G2" t="n">
-        <v>278103454.738674</v>
+        <v>255492.071199701</v>
       </c>
       <c r="H2" t="n">
-        <v>6323.68866933204</v>
+        <v>10094.1701498681</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0407166101333371</v>
+        <v>0.0640147799282222</v>
       </c>
       <c r="J2" t="n">
-        <v>49.68896867558</v>
+        <v>22183.9735819483</v>
       </c>
       <c r="K2" t="n">
-        <v>4285.68356997017</v>
+        <v>20288.6449104688</v>
       </c>
       <c r="L2" t="n">
-        <v>18049.6889686756</v>
+        <v>34183.9735819483</v>
       </c>
       <c r="M2" t="n">
-        <v>19326.0655474582</v>
+        <v>84849.562791953</v>
       </c>
       <c r="N2" t="n">
-        <v>227425363.977265</v>
+        <v>172040221.472676</v>
       </c>
       <c r="O2" t="n">
-        <v>210342861.472896</v>
+        <v>266025502.160397</v>
       </c>
       <c r="P2" t="n">
-        <v>1359713894870.56</v>
+        <v>543171896.552515</v>
       </c>
       <c r="Q2" t="n">
-        <v>1360151663096.01</v>
+        <v>981237620.185588</v>
       </c>
       <c r="R2" t="n">
         <v>303118.169896544</v>
@@ -517,52 +517,52 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>4037258.72853742</v>
+        <v>4023104.4875504</v>
       </c>
       <c r="C3" t="n">
-        <v>-153382718.802206</v>
+        <v>3608014.4216774</v>
       </c>
       <c r="D3" t="n">
-        <v>103217.965641601</v>
+        <v>117222.011690355</v>
       </c>
       <c r="E3" t="n">
-        <v>78337.2153925029</v>
+        <v>98829.0671582964</v>
       </c>
       <c r="F3" t="n">
-        <v>156660162.851105</v>
+        <v>23536.2977659071</v>
       </c>
       <c r="G3" t="n">
-        <v>156738500.066497</v>
+        <v>122365.364924203</v>
       </c>
       <c r="H3" t="n">
-        <v>6323.68866933204</v>
+        <v>10094.1701498681</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0407166101333371</v>
+        <v>0.0640147799282222</v>
       </c>
       <c r="J3" t="n">
-        <v>49.68896867558</v>
+        <v>22183.9735819483</v>
       </c>
       <c r="K3" t="n">
-        <v>4285.68356997017</v>
+        <v>20288.6449104688</v>
       </c>
       <c r="L3" t="n">
-        <v>18049.6889686756</v>
+        <v>34183.9735819483</v>
       </c>
       <c r="M3" t="n">
-        <v>19326.0655474582</v>
+        <v>84849.562791953</v>
       </c>
       <c r="N3" t="n">
-        <v>73512143.862045</v>
+        <v>56993251.611184</v>
       </c>
       <c r="O3" t="n">
-        <v>80823710.0594101</v>
+        <v>103539851.063349</v>
       </c>
       <c r="P3" t="n">
-        <v>766261190591.106</v>
+        <v>226049152.314696</v>
       </c>
       <c r="Q3" t="n">
-        <v>766415526445.027</v>
+        <v>386582254.989229</v>
       </c>
       <c r="R3" t="n">
         <v>303118.169896544</v>

--- a/prep/Resultados_Escenario_Nuevo.xlsx
+++ b/prep/Resultados_Escenario_Nuevo.xlsx
@@ -461,53 +461,49 @@
         <v>18</v>
       </c>
       <c r="B2" t="n">
-        <v>11439776.9738718</v>
+        <v>12267926.5218207</v>
       </c>
       <c r="C2" t="n">
-        <v>10182199.9600088</v>
+        <v>-283778149.535529</v>
       </c>
       <c r="D2" t="n">
-        <v>237752.524065385</v>
+        <v>137958.916344237</v>
       </c>
       <c r="E2" t="n">
-        <v>198952.964146462</v>
+        <v>115550.1077585</v>
       </c>
       <c r="F2" t="n">
-        <v>56539.10705324</v>
+        <v>294689826.208697</v>
       </c>
       <c r="G2" t="n">
-        <v>255492.071199701</v>
+        <v>294805376.316455</v>
       </c>
       <c r="H2" t="n">
-        <v>10094.1701498681</v>
+        <v>6078.00550393136</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0640147799282222</v>
+        <v>0.0423695178359395</v>
       </c>
       <c r="J2" t="n">
-        <v>22183.9735819483</v>
+        <v>191.264540949851</v>
       </c>
       <c r="K2" t="n">
-        <v>20288.6449104688</v>
+        <v>17050.6426746765</v>
       </c>
       <c r="L2" t="n">
-        <v>34183.9735819483</v>
+        <v>16191.2645409499</v>
       </c>
       <c r="M2" t="n">
-        <v>84849.562791953</v>
+        <v>76900.8672280761</v>
       </c>
       <c r="N2" t="n">
-        <v>172040221.472676</v>
+        <v>227949560.208367</v>
       </c>
       <c r="O2" t="n">
-        <v>266025502.160397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>543171896.552515</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>981237620.185588</v>
-      </c>
+        <v>314694036.133645</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2"/>
       <c r="R2" t="n">
         <v>303118.169896544</v>
       </c>
@@ -517,53 +513,49 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>4023104.4875504</v>
+        <v>4214562.16352104</v>
       </c>
       <c r="C3" t="n">
-        <v>3608014.4216774</v>
+        <v>-157249886.664442</v>
       </c>
       <c r="D3" t="n">
-        <v>117222.011690355</v>
+        <v>93920.6960783214</v>
       </c>
       <c r="E3" t="n">
-        <v>98829.0671582964</v>
+        <v>79325.2442943482</v>
       </c>
       <c r="F3" t="n">
-        <v>23536.2977659071</v>
+        <v>161038901.488461</v>
       </c>
       <c r="G3" t="n">
-        <v>122365.364924203</v>
+        <v>161118226.732756</v>
       </c>
       <c r="H3" t="n">
-        <v>10094.1701498681</v>
+        <v>6078.00550393136</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0640147799282222</v>
+        <v>0.0423695178359395</v>
       </c>
       <c r="J3" t="n">
-        <v>22183.9735819483</v>
+        <v>191.264540949851</v>
       </c>
       <c r="K3" t="n">
-        <v>20288.6449104688</v>
+        <v>17050.6426746765</v>
       </c>
       <c r="L3" t="n">
-        <v>34183.9735819483</v>
+        <v>16191.2645409499</v>
       </c>
       <c r="M3" t="n">
-        <v>84849.562791953</v>
+        <v>76900.8672280761</v>
       </c>
       <c r="N3" t="n">
-        <v>56993251.611184</v>
+        <v>72654761.4474541</v>
       </c>
       <c r="O3" t="n">
-        <v>103539851.063349</v>
-      </c>
-      <c r="P3" t="n">
-        <v>226049152.314696</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>386582254.989229</v>
-      </c>
+        <v>121176456.011664</v>
+      </c>
+      <c r="P3"/>
+      <c r="Q3"/>
       <c r="R3" t="n">
         <v>303118.169896544</v>
       </c>

--- a/prep/Resultados_Escenario_Nuevo.xlsx
+++ b/prep/Resultados_Escenario_Nuevo.xlsx
@@ -461,49 +461,53 @@
         <v>18</v>
       </c>
       <c r="B2" t="n">
-        <v>12267926.5218207</v>
+        <v>11554763.3588294</v>
       </c>
       <c r="C2" t="n">
-        <v>-283778149.535529</v>
+        <v>-268663126.363068</v>
       </c>
       <c r="D2" t="n">
-        <v>137958.916344237</v>
+        <v>150283.802560066</v>
       </c>
       <c r="E2" t="n">
-        <v>115550.1077585</v>
+        <v>113384.311737736</v>
       </c>
       <c r="F2" t="n">
-        <v>294689826.208697</v>
+        <v>277990070.426937</v>
       </c>
       <c r="G2" t="n">
-        <v>294805376.316455</v>
+        <v>278103454.738674</v>
       </c>
       <c r="H2" t="n">
-        <v>6078.00550393136</v>
+        <v>6323.68866933204</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0423695178359395</v>
+        <v>0.0407166101333371</v>
       </c>
       <c r="J2" t="n">
-        <v>191.264540949851</v>
+        <v>49.68896867558</v>
       </c>
       <c r="K2" t="n">
-        <v>17050.6426746765</v>
+        <v>4285.68356997017</v>
       </c>
       <c r="L2" t="n">
-        <v>16191.2645409499</v>
+        <v>18049.6889686756</v>
       </c>
       <c r="M2" t="n">
-        <v>76900.8672280761</v>
+        <v>19326.0655474582</v>
       </c>
       <c r="N2" t="n">
-        <v>227949560.208367</v>
+        <v>227425363.977265</v>
       </c>
       <c r="O2" t="n">
-        <v>314694036.133645</v>
-      </c>
-      <c r="P2"/>
-      <c r="Q2"/>
+        <v>210342861.472896</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1359713894870.56</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1360151663096.01</v>
+      </c>
       <c r="R2" t="n">
         <v>303118.169896544</v>
       </c>
@@ -513,49 +517,53 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>4214562.16352104</v>
+        <v>4037258.72853742</v>
       </c>
       <c r="C3" t="n">
-        <v>-157249886.664442</v>
+        <v>-153382718.802206</v>
       </c>
       <c r="D3" t="n">
-        <v>93920.6960783214</v>
+        <v>103217.965641601</v>
       </c>
       <c r="E3" t="n">
-        <v>79325.2442943482</v>
+        <v>78337.2153925029</v>
       </c>
       <c r="F3" t="n">
-        <v>161038901.488461</v>
+        <v>156660162.851105</v>
       </c>
       <c r="G3" t="n">
-        <v>161118226.732756</v>
+        <v>156738500.066497</v>
       </c>
       <c r="H3" t="n">
-        <v>6078.00550393136</v>
+        <v>6323.68866933204</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0423695178359395</v>
+        <v>0.0407166101333371</v>
       </c>
       <c r="J3" t="n">
-        <v>191.264540949851</v>
+        <v>49.68896867558</v>
       </c>
       <c r="K3" t="n">
-        <v>17050.6426746765</v>
+        <v>4285.68356997017</v>
       </c>
       <c r="L3" t="n">
-        <v>16191.2645409499</v>
+        <v>18049.6889686756</v>
       </c>
       <c r="M3" t="n">
-        <v>76900.8672280761</v>
+        <v>19326.0655474582</v>
       </c>
       <c r="N3" t="n">
-        <v>72654761.4474541</v>
+        <v>73512143.862045</v>
       </c>
       <c r="O3" t="n">
-        <v>121176456.011664</v>
-      </c>
-      <c r="P3"/>
-      <c r="Q3"/>
+        <v>80823710.0594101</v>
+      </c>
+      <c r="P3" t="n">
+        <v>766261190591.106</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>766415526445.027</v>
+      </c>
       <c r="R3" t="n">
         <v>303118.169896544</v>
       </c>
